--- a/heart.xlsx
+++ b/heart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C109876A\Desktop\maestria quimica\segundo semestre de Maestria\DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DE75CD-E86D-4C35-A826-663AAC9278DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE02294-9207-4A74-A692-15B0940AAF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3CD8071A-FDD0-4B4D-B9D3-57EE8C17C7B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CD8071A-FDD0-4B4D-B9D3-57EE8C17C7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>age</t>
   </si>
@@ -68,111 +68,6 @@
   <si>
     <t>output</t>
   </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
 </sst>
 </file>
 
@@ -207,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,12 +422,15 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +458,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -575,7 +474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>63</v>
       </c>
@@ -603,8 +502,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="J2" s="1">
+        <v>2.2999999999999998</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -619,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37</v>
       </c>
@@ -647,8 +546,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="J3" s="1">
+        <v>3.5</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -663,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -691,8 +590,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
+      <c r="J4" s="1">
+        <v>1.4</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -707,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>56</v>
       </c>
@@ -735,8 +634,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
+      <c r="J5" s="1">
+        <v>0.8</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -751,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>57</v>
       </c>
@@ -779,8 +678,8 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
+      <c r="J6" s="1">
+        <v>0.6</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -795,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>57</v>
       </c>
@@ -823,8 +722,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
+      <c r="J7" s="1">
+        <v>0.4</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -839,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>56</v>
       </c>
@@ -867,8 +766,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
+      <c r="J8" s="1">
+        <v>1.3</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -883,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>44</v>
       </c>
@@ -911,7 +810,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9">
@@ -927,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>52</v>
       </c>
@@ -955,8 +854,8 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>21</v>
+      <c r="J10" s="1">
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -971,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>57</v>
       </c>
@@ -999,8 +898,8 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>22</v>
+      <c r="J11" s="1">
+        <v>1.6</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1015,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>54</v>
       </c>
@@ -1043,8 +942,8 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
+      <c r="J12" s="1">
+        <v>1.2</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1059,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>48</v>
       </c>
@@ -1087,8 +986,8 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
+      <c r="J13" s="1">
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1103,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>49</v>
       </c>
@@ -1131,8 +1030,8 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
+      <c r="J14" s="1">
+        <v>0.6</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1147,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>64</v>
       </c>
@@ -1175,8 +1074,8 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>25</v>
+      <c r="J15" s="1">
+        <v>1.8</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1191,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>58</v>
       </c>
@@ -1219,7 +1118,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16">
@@ -1235,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1263,8 +1162,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>22</v>
+      <c r="J17" s="1">
+        <v>1.6</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1279,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>58</v>
       </c>
@@ -1307,7 +1206,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1323,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>66</v>
       </c>
@@ -1351,8 +1250,8 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>26</v>
+      <c r="J19" s="1">
+        <v>2.6</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1367,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>43</v>
       </c>
@@ -1395,8 +1294,8 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>27</v>
+      <c r="J20" s="1">
+        <v>1.5</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1411,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>69</v>
       </c>
@@ -1439,8 +1338,8 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>25</v>
+      <c r="J21" s="1">
+        <v>1.8</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1455,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>59</v>
       </c>
@@ -1483,8 +1382,8 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>21</v>
+      <c r="J22" s="1">
+        <v>0.5</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1499,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
@@ -1527,8 +1426,8 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>19</v>
+      <c r="J23" s="1">
+        <v>0.4</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1543,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>42</v>
       </c>
@@ -1571,7 +1470,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24">
@@ -1587,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>61</v>
       </c>
@@ -1615,7 +1514,7 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25">
@@ -1631,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>40</v>
       </c>
@@ -1659,8 +1558,8 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>16</v>
+      <c r="J26" s="1">
+        <v>1.4</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1675,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>71</v>
       </c>
@@ -1703,8 +1602,8 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>19</v>
+      <c r="J27" s="1">
+        <v>0.4</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1719,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>59</v>
       </c>
@@ -1747,8 +1646,8 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>22</v>
+      <c r="J28" s="1">
+        <v>1.6</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1763,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>51</v>
       </c>
@@ -1791,8 +1690,8 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>18</v>
+      <c r="J29" s="1">
+        <v>0.6</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1807,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>65</v>
       </c>
@@ -1835,8 +1734,8 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>17</v>
+      <c r="J30" s="1">
+        <v>0.8</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1851,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>53</v>
       </c>
@@ -1879,8 +1778,8 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>23</v>
+      <c r="J31" s="1">
+        <v>1.2</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1895,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>41</v>
       </c>
@@ -1923,7 +1822,7 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>0</v>
       </c>
       <c r="K32">
@@ -1939,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>65</v>
       </c>
@@ -1967,8 +1866,8 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>19</v>
+      <c r="J33" s="1">
+        <v>0.4</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1983,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44</v>
       </c>
@@ -2011,7 +1910,7 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>0</v>
       </c>
       <c r="K34">
@@ -2027,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>54</v>
       </c>
@@ -2055,8 +1954,8 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>21</v>
+      <c r="J35" s="1">
+        <v>0.5</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2071,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>51</v>
       </c>
@@ -2099,8 +1998,8 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>16</v>
+      <c r="J36" s="1">
+        <v>1.4</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2115,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>46</v>
       </c>
@@ -2143,8 +2042,8 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" t="s">
-        <v>16</v>
+      <c r="J37" s="1">
+        <v>1.4</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2159,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>54</v>
       </c>
@@ -2187,7 +2086,7 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>0</v>
       </c>
       <c r="K38">
@@ -2203,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>54</v>
       </c>
@@ -2231,8 +2130,8 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>22</v>
+      <c r="J39" s="1">
+        <v>1.6</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2247,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>65</v>
       </c>
@@ -2275,8 +2174,8 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>17</v>
+      <c r="J40" s="1">
+        <v>0.8</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2291,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>65</v>
       </c>
@@ -2319,8 +2218,8 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>17</v>
+      <c r="J41" s="1">
+        <v>0.8</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2335,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>51</v>
       </c>
@@ -2363,8 +2262,8 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>27</v>
+      <c r="J42" s="1">
+        <v>1.5</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -2379,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>48</v>
       </c>
@@ -2407,8 +2306,8 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>24</v>
+      <c r="J43" s="1">
+        <v>0.2</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2423,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2451,7 +2350,7 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>3</v>
       </c>
       <c r="K44">
@@ -2467,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>53</v>
       </c>
@@ -2495,8 +2394,8 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>19</v>
+      <c r="J45" s="1">
+        <v>0.4</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2511,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>39</v>
       </c>
@@ -2539,7 +2438,7 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46">
@@ -2555,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>52</v>
       </c>
@@ -2583,8 +2482,8 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
-        <v>24</v>
+      <c r="J47" s="1">
+        <v>0.2</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2599,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2627,7 +2526,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48">
@@ -2643,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2671,7 +2570,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49">
@@ -2687,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53</v>
       </c>
@@ -2715,7 +2614,7 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50">
@@ -2731,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53</v>
       </c>
@@ -2759,7 +2658,7 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51">
@@ -2775,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2803,8 +2702,8 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>21</v>
+      <c r="J52" s="1">
+        <v>0.5</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2819,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>66</v>
       </c>
@@ -2847,8 +2746,8 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>19</v>
+      <c r="J53" s="1">
+        <v>0.4</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -2863,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>62</v>
       </c>
@@ -2891,8 +2790,8 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
-        <v>25</v>
+      <c r="J54" s="1">
+        <v>1.8</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -2907,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>44</v>
       </c>
@@ -2935,8 +2834,8 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>18</v>
+      <c r="J55" s="1">
+        <v>0.6</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2951,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>63</v>
       </c>
@@ -2979,7 +2878,7 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>0</v>
       </c>
       <c r="K56">
@@ -2995,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>52</v>
       </c>
@@ -3023,8 +2922,8 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>17</v>
+      <c r="J57" s="1">
+        <v>0.8</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -3039,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>48</v>
       </c>
@@ -3067,7 +2966,7 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>0</v>
       </c>
       <c r="K58">
@@ -3083,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>45</v>
       </c>
@@ -3111,7 +3010,7 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>0</v>
       </c>
       <c r="K59">
@@ -3127,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34</v>
       </c>
@@ -3155,7 +3054,7 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>0</v>
       </c>
       <c r="K60">
@@ -3171,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>57</v>
       </c>
@@ -3199,7 +3098,7 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>0</v>
       </c>
       <c r="K61">
@@ -3215,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>71</v>
       </c>
@@ -3243,7 +3142,7 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>0</v>
       </c>
       <c r="K62">
@@ -3259,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>54</v>
       </c>
@@ -3287,7 +3186,7 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="1">
         <v>0</v>
       </c>
       <c r="K63">
@@ -3303,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>52</v>
       </c>
@@ -3331,7 +3230,7 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <v>0</v>
       </c>
       <c r="K64">
@@ -3347,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>41</v>
       </c>
@@ -3375,7 +3274,7 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>0</v>
       </c>
       <c r="K65">
@@ -3391,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>58</v>
       </c>
@@ -3419,7 +3318,7 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>0</v>
       </c>
       <c r="K66">
@@ -3435,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>35</v>
       </c>
@@ -3463,8 +3362,8 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
-        <v>16</v>
+      <c r="J67" s="1">
+        <v>1.4</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -3479,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>51</v>
       </c>
@@ -3507,8 +3406,8 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68" t="s">
-        <v>23</v>
+      <c r="J68" s="1">
+        <v>1.2</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -3523,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45</v>
       </c>
@@ -3551,8 +3450,8 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>18</v>
+      <c r="J69" s="1">
+        <v>0.6</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -3567,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>44</v>
       </c>
@@ -3595,7 +3494,7 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>0</v>
       </c>
       <c r="K70">
@@ -3611,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>62</v>
       </c>
@@ -3639,7 +3538,7 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1">
         <v>0</v>
       </c>
       <c r="K71">
@@ -3655,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>54</v>
       </c>
@@ -3683,8 +3582,8 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>19</v>
+      <c r="J72" s="1">
+        <v>0.4</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -3699,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -3727,7 +3626,7 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>0</v>
       </c>
       <c r="K73">
@@ -3743,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>29</v>
       </c>
@@ -3771,7 +3670,7 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>0</v>
       </c>
       <c r="K74">
@@ -3787,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>51</v>
       </c>
@@ -3815,7 +3714,7 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>0</v>
       </c>
       <c r="K75">
@@ -3831,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>43</v>
       </c>
@@ -3859,8 +3758,8 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
-        <v>24</v>
+      <c r="J76" s="1">
+        <v>0.2</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3875,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>55</v>
       </c>
@@ -3903,8 +3802,8 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>16</v>
+      <c r="J77" s="1">
+        <v>1.4</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -3919,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>51</v>
       </c>
@@ -3947,8 +3846,8 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>28</v>
+      <c r="J78" s="1">
+        <v>2.4</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -3963,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>59</v>
       </c>
@@ -3991,7 +3890,7 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1">
         <v>0</v>
       </c>
       <c r="K79">
@@ -4007,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>52</v>
       </c>
@@ -4035,7 +3934,7 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>0</v>
       </c>
       <c r="K80">
@@ -4051,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>58</v>
       </c>
@@ -4079,8 +3978,8 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81" t="s">
-        <v>18</v>
+      <c r="J81" s="1">
+        <v>0.6</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -4095,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>41</v>
       </c>
@@ -4123,7 +4022,7 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1">
         <v>0</v>
       </c>
       <c r="K82">
@@ -4139,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>45</v>
       </c>
@@ -4167,7 +4066,7 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1">
         <v>0</v>
       </c>
       <c r="K83">
@@ -4183,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>60</v>
       </c>
@@ -4211,7 +4110,7 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1">
         <v>0</v>
       </c>
       <c r="K84">
@@ -4227,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>52</v>
       </c>
@@ -4255,8 +4154,8 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>23</v>
+      <c r="J85" s="1">
+        <v>1.2</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -4271,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>42</v>
       </c>
@@ -4299,8 +4198,8 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" t="s">
-        <v>18</v>
+      <c r="J86" s="1">
+        <v>0.6</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4315,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>67</v>
       </c>
@@ -4343,8 +4242,8 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>22</v>
+      <c r="J87" s="1">
+        <v>1.6</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4359,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>68</v>
       </c>
@@ -4387,7 +4286,7 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1">
         <v>1</v>
       </c>
       <c r="K88">
@@ -4403,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>46</v>
       </c>
@@ -4431,7 +4330,7 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1">
         <v>0</v>
       </c>
       <c r="K89">
@@ -4447,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>54</v>
       </c>
@@ -4475,8 +4374,8 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>22</v>
+      <c r="J90" s="1">
+        <v>1.6</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -4491,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>58</v>
       </c>
@@ -4519,7 +4418,7 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="1">
         <v>1</v>
       </c>
       <c r="K91">
@@ -4535,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>48</v>
       </c>
@@ -4563,7 +4462,7 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="1">
         <v>0</v>
       </c>
       <c r="K92">
@@ -4579,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>57</v>
       </c>
@@ -4607,7 +4506,7 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="1">
         <v>0</v>
       </c>
       <c r="K93">
@@ -4623,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>52</v>
       </c>
@@ -4651,7 +4550,7 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="1">
         <v>0</v>
       </c>
       <c r="K94">
@@ -4667,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>54</v>
       </c>
@@ -4695,7 +4594,7 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="1">
         <v>0</v>
       </c>
       <c r="K95">
@@ -4711,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>45</v>
       </c>
@@ -4739,7 +4638,7 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="1">
         <v>0</v>
       </c>
       <c r="K96">
@@ -4755,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>53</v>
       </c>
@@ -4783,7 +4682,7 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="1">
         <v>0</v>
       </c>
       <c r="K97">
@@ -4799,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>62</v>
       </c>
@@ -4827,8 +4726,8 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>23</v>
+      <c r="J98" s="1">
+        <v>1.2</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -4843,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>52</v>
       </c>
@@ -4871,8 +4770,8 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>29</v>
+      <c r="J99" s="1">
+        <v>0.1</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -4887,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>43</v>
       </c>
@@ -4915,8 +4814,8 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>30</v>
+      <c r="J100" s="1">
+        <v>1.9</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -4931,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>53</v>
       </c>
@@ -4959,7 +4858,7 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="1">
         <v>0</v>
       </c>
       <c r="K101">
@@ -4975,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>42</v>
       </c>
@@ -5003,8 +4902,8 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>17</v>
+      <c r="J102" s="1">
+        <v>0.8</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -5019,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>59</v>
       </c>
@@ -5047,8 +4946,8 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>31</v>
+      <c r="J103" s="1">
+        <v>4.2</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5063,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>63</v>
       </c>
@@ -5091,7 +4990,7 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="1">
         <v>0</v>
       </c>
       <c r="K104">
@@ -5107,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>42</v>
       </c>
@@ -5135,8 +5034,8 @@
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>17</v>
+      <c r="J105" s="1">
+        <v>0.8</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5151,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>50</v>
       </c>
@@ -5179,7 +5078,7 @@
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1">
         <v>0</v>
       </c>
       <c r="K106">
@@ -5195,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>68</v>
       </c>
@@ -5223,8 +5122,8 @@
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>27</v>
+      <c r="J107" s="1">
+        <v>1.5</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5239,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>69</v>
       </c>
@@ -5267,8 +5166,8 @@
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>29</v>
+      <c r="J108" s="1">
+        <v>0.1</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -5283,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>45</v>
       </c>
@@ -5311,8 +5210,8 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109" t="s">
-        <v>24</v>
+      <c r="J109" s="1">
+        <v>0.2</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -5327,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50</v>
       </c>
@@ -5355,8 +5254,8 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" t="s">
-        <v>32</v>
+      <c r="J110" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -5371,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>50</v>
       </c>
@@ -5399,7 +5298,7 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="1">
         <v>0</v>
       </c>
       <c r="K111">
@@ -5415,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>64</v>
       </c>
@@ -5443,7 +5342,7 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="1">
         <v>0</v>
       </c>
       <c r="K112">
@@ -5459,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>57</v>
       </c>
@@ -5487,8 +5386,8 @@
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>24</v>
+      <c r="J113" s="1">
+        <v>0.2</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -5503,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>64</v>
       </c>
@@ -5531,8 +5430,8 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" t="s">
-        <v>24</v>
+      <c r="J114" s="1">
+        <v>0.2</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -5547,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>43</v>
       </c>
@@ -5575,7 +5474,7 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="1">
         <v>0</v>
       </c>
       <c r="K115">
@@ -5591,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>55</v>
       </c>
@@ -5619,7 +5518,7 @@
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="1">
         <v>0</v>
       </c>
       <c r="K116">
@@ -5635,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>37</v>
       </c>
@@ -5663,7 +5562,7 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="1">
         <v>0</v>
       </c>
       <c r="K117">
@@ -5679,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>41</v>
       </c>
@@ -5707,7 +5606,7 @@
       <c r="I118">
         <v>0</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="1">
         <v>2</v>
       </c>
       <c r="K118">
@@ -5723,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>56</v>
       </c>
@@ -5751,8 +5650,8 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" t="s">
-        <v>30</v>
+      <c r="J119" s="1">
+        <v>1.9</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -5767,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>46</v>
       </c>
@@ -5795,7 +5694,7 @@
       <c r="I120">
         <v>0</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="1">
         <v>0</v>
       </c>
       <c r="K120">
@@ -5811,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>46</v>
       </c>
@@ -5839,7 +5738,7 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="1">
         <v>0</v>
       </c>
       <c r="K121">
@@ -5855,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>64</v>
       </c>
@@ -5883,7 +5782,7 @@
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="1">
         <v>2</v>
       </c>
       <c r="K122">
@@ -5899,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>59</v>
       </c>
@@ -5927,7 +5826,7 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1">
         <v>0</v>
       </c>
       <c r="K123">
@@ -5943,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>41</v>
       </c>
@@ -5971,7 +5870,7 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="1">
         <v>0</v>
       </c>
       <c r="K124">
@@ -5987,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>54</v>
       </c>
@@ -6015,7 +5914,7 @@
       <c r="I125">
         <v>0</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1">
         <v>0</v>
       </c>
       <c r="K125">
@@ -6031,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>39</v>
       </c>
@@ -6059,7 +5958,7 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="1">
         <v>0</v>
       </c>
       <c r="K126">
@@ -6075,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>34</v>
       </c>
@@ -6103,8 +6002,8 @@
       <c r="I127">
         <v>0</v>
       </c>
-      <c r="J127" t="s">
-        <v>33</v>
+      <c r="J127" s="1">
+        <v>0.7</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -6119,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>47</v>
       </c>
@@ -6147,8 +6046,8 @@
       <c r="I128">
         <v>0</v>
       </c>
-      <c r="J128" t="s">
-        <v>29</v>
+      <c r="J128" s="1">
+        <v>0.1</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -6163,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>67</v>
       </c>
@@ -6191,7 +6090,7 @@
       <c r="I129">
         <v>0</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="1">
         <v>0</v>
       </c>
       <c r="K129">
@@ -6207,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>52</v>
       </c>
@@ -6235,8 +6134,8 @@
       <c r="I130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>29</v>
+      <c r="J130" s="1">
+        <v>0.1</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -6251,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>74</v>
       </c>
@@ -6279,8 +6178,8 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131" t="s">
-        <v>24</v>
+      <c r="J131" s="1">
+        <v>0.2</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -6295,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>54</v>
       </c>
@@ -6323,7 +6222,7 @@
       <c r="I132">
         <v>0</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="1">
         <v>0</v>
       </c>
       <c r="K132">
@@ -6339,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>49</v>
       </c>
@@ -6367,7 +6266,7 @@
       <c r="I133">
         <v>0</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="1">
         <v>0</v>
       </c>
       <c r="K133">
@@ -6383,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>42</v>
       </c>
@@ -6411,7 +6310,7 @@
       <c r="I134">
         <v>0</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="1">
         <v>0</v>
       </c>
       <c r="K134">
@@ -6427,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>41</v>
       </c>
@@ -6455,7 +6354,7 @@
       <c r="I135">
         <v>0</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1">
         <v>0</v>
       </c>
       <c r="K135">
@@ -6471,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>41</v>
       </c>
@@ -6499,7 +6398,7 @@
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1">
         <v>0</v>
       </c>
       <c r="K136">
@@ -6515,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>49</v>
       </c>
@@ -6543,7 +6442,7 @@
       <c r="I137">
         <v>0</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1">
         <v>0</v>
       </c>
       <c r="K137">
@@ -6559,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>60</v>
       </c>
@@ -6587,7 +6486,7 @@
       <c r="I138">
         <v>0</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1">
         <v>0</v>
       </c>
       <c r="K138">
@@ -6603,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>62</v>
       </c>
@@ -6631,7 +6530,7 @@
       <c r="I139">
         <v>0</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="1">
         <v>0</v>
       </c>
       <c r="K139">
@@ -6647,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>57</v>
       </c>
@@ -6675,8 +6574,8 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140" t="s">
-        <v>27</v>
+      <c r="J140" s="1">
+        <v>1.5</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -6691,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>64</v>
       </c>
@@ -6719,8 +6618,8 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141" t="s">
-        <v>24</v>
+      <c r="J141" s="1">
+        <v>0.2</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -6735,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>51</v>
       </c>
@@ -6763,8 +6662,8 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="J142" t="s">
-        <v>18</v>
+      <c r="J142" s="1">
+        <v>0.6</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -6779,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>43</v>
       </c>
@@ -6807,8 +6706,8 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" t="s">
-        <v>23</v>
+      <c r="J143" s="1">
+        <v>1.2</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -6823,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>42</v>
       </c>
@@ -6851,7 +6750,7 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="1">
         <v>0</v>
       </c>
       <c r="K144">
@@ -6867,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>67</v>
       </c>
@@ -6895,8 +6794,8 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>34</v>
+      <c r="J145" s="1">
+        <v>0.3</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -6911,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>76</v>
       </c>
@@ -6939,8 +6838,8 @@
       <c r="I146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>32</v>
+      <c r="J146" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -6955,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>70</v>
       </c>
@@ -6983,7 +6882,7 @@
       <c r="I147">
         <v>0</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="1">
         <v>0</v>
       </c>
       <c r="K147">
@@ -6999,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>44</v>
       </c>
@@ -7027,8 +6926,8 @@
       <c r="I148">
         <v>0</v>
       </c>
-      <c r="J148" t="s">
-        <v>34</v>
+      <c r="J148" s="1">
+        <v>0.3</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -7043,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>60</v>
       </c>
@@ -7071,8 +6970,8 @@
       <c r="I149">
         <v>0</v>
       </c>
-      <c r="J149" t="s">
-        <v>35</v>
+      <c r="J149" s="1">
+        <v>0.9</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -7087,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>44</v>
       </c>
@@ -7115,7 +7014,7 @@
       <c r="I150">
         <v>0</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="1">
         <v>0</v>
       </c>
       <c r="K150">
@@ -7131,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>42</v>
       </c>
@@ -7159,7 +7058,7 @@
       <c r="I151">
         <v>0</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="1">
         <v>0</v>
       </c>
       <c r="K151">
@@ -7175,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>66</v>
       </c>
@@ -7203,8 +7102,8 @@
       <c r="I152">
         <v>0</v>
       </c>
-      <c r="J152" t="s">
-        <v>14</v>
+      <c r="J152" s="1">
+        <v>2.2999999999999998</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -7219,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>71</v>
       </c>
@@ -7247,8 +7146,8 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="J153" t="s">
-        <v>22</v>
+      <c r="J153" s="1">
+        <v>1.6</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -7263,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>64</v>
       </c>
@@ -7291,8 +7190,8 @@
       <c r="I154">
         <v>0</v>
       </c>
-      <c r="J154" t="s">
-        <v>18</v>
+      <c r="J154" s="1">
+        <v>0.6</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -7307,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>66</v>
       </c>
@@ -7335,7 +7234,7 @@
       <c r="I155">
         <v>0</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="1">
         <v>0</v>
       </c>
       <c r="K155">
@@ -7351,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>39</v>
       </c>
@@ -7379,7 +7278,7 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="1">
         <v>0</v>
       </c>
       <c r="K156">
@@ -7395,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>58</v>
       </c>
@@ -7423,8 +7322,8 @@
       <c r="I157">
         <v>0</v>
       </c>
-      <c r="J157" t="s">
-        <v>18</v>
+      <c r="J157" s="1">
+        <v>0.6</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -7439,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>47</v>
       </c>
@@ -7467,7 +7366,7 @@
       <c r="I158">
         <v>0</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="1">
         <v>0</v>
       </c>
       <c r="K158">
@@ -7483,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>35</v>
       </c>
@@ -7511,7 +7410,7 @@
       <c r="I159">
         <v>0</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="1">
         <v>0</v>
       </c>
       <c r="K159">
@@ -7527,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>58</v>
       </c>
@@ -7555,8 +7454,8 @@
       <c r="I160">
         <v>0</v>
       </c>
-      <c r="J160" t="s">
-        <v>19</v>
+      <c r="J160" s="1">
+        <v>0.4</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -7571,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>56</v>
       </c>
@@ -7599,7 +7498,7 @@
       <c r="I161">
         <v>0</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="1">
         <v>0</v>
       </c>
       <c r="K161">
@@ -7615,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>56</v>
       </c>
@@ -7643,7 +7542,7 @@
       <c r="I162">
         <v>0</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="1">
         <v>0</v>
       </c>
       <c r="K162">
@@ -7659,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>55</v>
       </c>
@@ -7687,8 +7586,8 @@
       <c r="I163">
         <v>0</v>
       </c>
-      <c r="J163" t="s">
-        <v>23</v>
+      <c r="J163" s="1">
+        <v>1.2</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -7703,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>41</v>
       </c>
@@ -7731,7 +7630,7 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="1">
         <v>0</v>
       </c>
       <c r="K164">
@@ -7747,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>38</v>
       </c>
@@ -7775,7 +7674,7 @@
       <c r="I165">
         <v>0</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="1">
         <v>0</v>
       </c>
       <c r="K165">
@@ -7791,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>38</v>
       </c>
@@ -7819,7 +7718,7 @@
       <c r="I166">
         <v>0</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="1">
         <v>0</v>
       </c>
       <c r="K166">
@@ -7835,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>67</v>
       </c>
@@ -7863,8 +7762,8 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167" t="s">
-        <v>27</v>
+      <c r="J167" s="1">
+        <v>1.5</v>
       </c>
       <c r="K167">
         <v>1</v>
@@ -7879,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>67</v>
       </c>
@@ -7907,8 +7806,8 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168" t="s">
-        <v>26</v>
+      <c r="J168" s="1">
+        <v>2.6</v>
       </c>
       <c r="K168">
         <v>1</v>
@@ -7923,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>62</v>
       </c>
@@ -7951,8 +7850,8 @@
       <c r="I169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>36</v>
+      <c r="J169" s="1">
+        <v>3.6</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7967,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>63</v>
       </c>
@@ -7995,8 +7894,8 @@
       <c r="I170">
         <v>0</v>
       </c>
-      <c r="J170" t="s">
-        <v>16</v>
+      <c r="J170" s="1">
+        <v>1.4</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -8011,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>53</v>
       </c>
@@ -8039,8 +7938,8 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171" t="s">
-        <v>37</v>
+      <c r="J171" s="1">
+        <v>3.1</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -8055,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>56</v>
       </c>
@@ -8083,8 +7982,8 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172" t="s">
-        <v>18</v>
+      <c r="J172" s="1">
+        <v>0.6</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -8099,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>48</v>
       </c>
@@ -8127,7 +8026,7 @@
       <c r="I173">
         <v>0</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="1">
         <v>1</v>
       </c>
       <c r="K173">
@@ -8143,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>58</v>
       </c>
@@ -8171,8 +8070,8 @@
       <c r="I174">
         <v>0</v>
       </c>
-      <c r="J174" t="s">
-        <v>25</v>
+      <c r="J174" s="1">
+        <v>1.8</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -8187,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>58</v>
       </c>
@@ -8215,8 +8114,8 @@
       <c r="I175">
         <v>0</v>
       </c>
-      <c r="J175" t="s">
-        <v>38</v>
+      <c r="J175" s="1">
+        <v>3.2</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -8231,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>60</v>
       </c>
@@ -8259,8 +8158,8 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176" t="s">
-        <v>28</v>
+      <c r="J176" s="1">
+        <v>2.4</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -8275,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>40</v>
       </c>
@@ -8303,7 +8202,7 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="1">
         <v>2</v>
       </c>
       <c r="K177">
@@ -8319,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>60</v>
       </c>
@@ -8347,8 +8246,8 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178" t="s">
-        <v>16</v>
+      <c r="J178" s="1">
+        <v>1.4</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -8363,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>64</v>
       </c>
@@ -8391,7 +8290,7 @@
       <c r="I179">
         <v>0</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="1">
         <v>0</v>
       </c>
       <c r="K179">
@@ -8407,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>43</v>
       </c>
@@ -8435,8 +8334,8 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180" t="s">
-        <v>39</v>
+      <c r="J180" s="1">
+        <v>2.5</v>
       </c>
       <c r="K180">
         <v>1</v>
@@ -8451,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>57</v>
       </c>
@@ -8479,8 +8378,8 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181" t="s">
-        <v>18</v>
+      <c r="J181" s="1">
+        <v>0.6</v>
       </c>
       <c r="K181">
         <v>1</v>
@@ -8495,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>55</v>
       </c>
@@ -8523,8 +8422,8 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182" t="s">
-        <v>23</v>
+      <c r="J182" s="1">
+        <v>1.2</v>
       </c>
       <c r="K182">
         <v>1</v>
@@ -8539,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>65</v>
       </c>
@@ -8567,7 +8466,7 @@
       <c r="I183">
         <v>0</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="1">
         <v>1</v>
       </c>
       <c r="K183">
@@ -8583,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>61</v>
       </c>
@@ -8611,7 +8510,7 @@
       <c r="I184">
         <v>0</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="1">
         <v>0</v>
       </c>
       <c r="K184">
@@ -8627,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>58</v>
       </c>
@@ -8655,8 +8554,8 @@
       <c r="I185">
         <v>0</v>
       </c>
-      <c r="J185" t="s">
-        <v>39</v>
+      <c r="J185" s="1">
+        <v>2.5</v>
       </c>
       <c r="K185">
         <v>1</v>
@@ -8671,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>50</v>
       </c>
@@ -8699,8 +8598,8 @@
       <c r="I186">
         <v>0</v>
       </c>
-      <c r="J186" t="s">
-        <v>26</v>
+      <c r="J186" s="1">
+        <v>2.6</v>
       </c>
       <c r="K186">
         <v>1</v>
@@ -8715,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>44</v>
       </c>
@@ -8743,7 +8642,7 @@
       <c r="I187">
         <v>0</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="1">
         <v>0</v>
       </c>
       <c r="K187">
@@ -8759,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>60</v>
       </c>
@@ -8787,8 +8686,8 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188" t="s">
-        <v>16</v>
+      <c r="J188" s="1">
+        <v>1.4</v>
       </c>
       <c r="K188">
         <v>2</v>
@@ -8803,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>54</v>
       </c>
@@ -8831,8 +8730,8 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189" t="s">
-        <v>40</v>
+      <c r="J189" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="K189">
         <v>1</v>
@@ -8847,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>50</v>
       </c>
@@ -8875,8 +8774,8 @@
       <c r="I190">
         <v>0</v>
       </c>
-      <c r="J190" t="s">
-        <v>18</v>
+      <c r="J190" s="1">
+        <v>0.6</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -8891,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>41</v>
       </c>
@@ -8919,7 +8818,7 @@
       <c r="I191">
         <v>0</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="1">
         <v>0</v>
       </c>
       <c r="K191">
@@ -8935,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>51</v>
       </c>
@@ -8963,8 +8862,8 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192" t="s">
-        <v>23</v>
+      <c r="J192" s="1">
+        <v>1.2</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -8979,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>58</v>
       </c>
@@ -9007,8 +8906,8 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193" t="s">
-        <v>40</v>
+      <c r="J193" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="K193">
         <v>1</v>
@@ -9023,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>54</v>
       </c>
@@ -9051,8 +8950,8 @@
       <c r="I194">
         <v>0</v>
       </c>
-      <c r="J194" t="s">
-        <v>16</v>
+      <c r="J194" s="1">
+        <v>1.4</v>
       </c>
       <c r="K194">
         <v>1</v>
@@ -9067,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>60</v>
       </c>
@@ -9095,8 +8994,8 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195" t="s">
-        <v>41</v>
+      <c r="J195" s="1">
+        <v>2.8</v>
       </c>
       <c r="K195">
         <v>1</v>
@@ -9111,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>60</v>
       </c>
@@ -9139,7 +9038,7 @@
       <c r="I196">
         <v>0</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="1">
         <v>3</v>
       </c>
       <c r="K196">
@@ -9155,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>59</v>
       </c>
@@ -9183,8 +9082,8 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197" t="s">
-        <v>42</v>
+      <c r="J197" s="1">
+        <v>3.4</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -9199,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>46</v>
       </c>
@@ -9227,8 +9126,8 @@
       <c r="I198">
         <v>0</v>
       </c>
-      <c r="J198" t="s">
-        <v>36</v>
+      <c r="J198" s="1">
+        <v>3.6</v>
       </c>
       <c r="K198">
         <v>1</v>
@@ -9243,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>67</v>
       </c>
@@ -9271,8 +9170,8 @@
       <c r="I199">
         <v>0</v>
       </c>
-      <c r="J199" t="s">
-        <v>24</v>
+      <c r="J199" s="1">
+        <v>0.2</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -9287,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>62</v>
       </c>
@@ -9315,8 +9214,8 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200" t="s">
-        <v>25</v>
+      <c r="J200" s="1">
+        <v>1.8</v>
       </c>
       <c r="K200">
         <v>1</v>
@@ -9331,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>65</v>
       </c>
@@ -9359,8 +9258,8 @@
       <c r="I201">
         <v>0</v>
       </c>
-      <c r="J201" t="s">
-        <v>18</v>
+      <c r="J201" s="1">
+        <v>0.6</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -9375,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>44</v>
       </c>
@@ -9403,7 +9302,7 @@
       <c r="I202">
         <v>0</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="1">
         <v>0</v>
       </c>
       <c r="K202">
@@ -9419,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>60</v>
       </c>
@@ -9447,8 +9346,8 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203" t="s">
-        <v>41</v>
+      <c r="J203" s="1">
+        <v>2.8</v>
       </c>
       <c r="K203">
         <v>1</v>
@@ -9463,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>58</v>
       </c>
@@ -9491,8 +9390,8 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204" t="s">
-        <v>17</v>
+      <c r="J204" s="1">
+        <v>0.8</v>
       </c>
       <c r="K204">
         <v>2</v>
@@ -9507,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>68</v>
       </c>
@@ -9535,8 +9434,8 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205" t="s">
-        <v>22</v>
+      <c r="J205" s="1">
+        <v>1.6</v>
       </c>
       <c r="K205">
         <v>1</v>
@@ -9551,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>62</v>
       </c>
@@ -9579,8 +9478,8 @@
       <c r="I206">
         <v>0</v>
       </c>
-      <c r="J206" t="s">
-        <v>43</v>
+      <c r="J206" s="1">
+        <v>6.2</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -9595,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>52</v>
       </c>
@@ -9623,7 +9522,7 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="1">
         <v>0</v>
       </c>
       <c r="K207">
@@ -9639,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>59</v>
       </c>
@@ -9667,8 +9566,8 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208" t="s">
-        <v>23</v>
+      <c r="J208" s="1">
+        <v>1.2</v>
       </c>
       <c r="K208">
         <v>1</v>
@@ -9683,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>60</v>
       </c>
@@ -9711,8 +9610,8 @@
       <c r="I209">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>26</v>
+      <c r="J209" s="1">
+        <v>2.6</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -9727,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>49</v>
       </c>
@@ -9755,7 +9654,7 @@
       <c r="I210">
         <v>0</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="1">
         <v>2</v>
       </c>
       <c r="K210">
@@ -9771,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>59</v>
       </c>
@@ -9799,7 +9698,7 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="1">
         <v>0</v>
       </c>
       <c r="K211">
@@ -9815,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>57</v>
       </c>
@@ -9843,8 +9742,8 @@
       <c r="I212">
         <v>0</v>
       </c>
-      <c r="J212" t="s">
-        <v>19</v>
+      <c r="J212" s="1">
+        <v>0.4</v>
       </c>
       <c r="K212">
         <v>1</v>
@@ -9859,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>61</v>
       </c>
@@ -9887,8 +9786,8 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213" t="s">
-        <v>36</v>
+      <c r="J213" s="1">
+        <v>3.6</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -9903,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>39</v>
       </c>
@@ -9931,8 +9830,8 @@
       <c r="I214">
         <v>0</v>
       </c>
-      <c r="J214" t="s">
-        <v>23</v>
+      <c r="J214" s="1">
+        <v>1.2</v>
       </c>
       <c r="K214">
         <v>1</v>
@@ -9947,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>61</v>
       </c>
@@ -9975,7 +9874,7 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="1">
         <v>1</v>
       </c>
       <c r="K215">
@@ -9991,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>56</v>
       </c>
@@ -10019,8 +9918,8 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216" t="s">
-        <v>23</v>
+      <c r="J216" s="1">
+        <v>1.2</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -10035,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>43</v>
       </c>
@@ -10063,7 +9962,7 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="1">
         <v>3</v>
       </c>
       <c r="K217">
@@ -10079,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>62</v>
       </c>
@@ -10107,8 +10006,8 @@
       <c r="I218">
         <v>0</v>
       </c>
-      <c r="J218" t="s">
-        <v>23</v>
+      <c r="J218" s="1">
+        <v>1.2</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -10123,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>63</v>
       </c>
@@ -10151,8 +10050,8 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219" t="s">
-        <v>25</v>
+      <c r="J219" s="1">
+        <v>1.8</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -10167,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>65</v>
       </c>
@@ -10195,8 +10094,8 @@
       <c r="I220">
         <v>0</v>
       </c>
-      <c r="J220" t="s">
-        <v>41</v>
+      <c r="J220" s="1">
+        <v>2.8</v>
       </c>
       <c r="K220">
         <v>1</v>
@@ -10211,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>48</v>
       </c>
@@ -10239,7 +10138,7 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="1">
         <v>0</v>
       </c>
       <c r="K221">
@@ -10255,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>63</v>
       </c>
@@ -10283,7 +10182,7 @@
       <c r="I222">
         <v>0</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="1">
         <v>4</v>
       </c>
       <c r="K222">
@@ -10299,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>55</v>
       </c>
@@ -10327,8 +10226,8 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223" t="s">
-        <v>44</v>
+      <c r="J223" s="1">
+        <v>5.6</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -10343,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>65</v>
       </c>
@@ -10371,8 +10270,8 @@
       <c r="I224">
         <v>0</v>
       </c>
-      <c r="J224" t="s">
-        <v>16</v>
+      <c r="J224" s="1">
+        <v>1.4</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -10387,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>56</v>
       </c>
@@ -10415,7 +10314,7 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="1">
         <v>4</v>
       </c>
       <c r="K225">
@@ -10431,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>54</v>
       </c>
@@ -10459,8 +10358,8 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226" t="s">
-        <v>41</v>
+      <c r="J226" s="1">
+        <v>2.8</v>
       </c>
       <c r="K226">
         <v>1</v>
@@ -10475,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>70</v>
       </c>
@@ -10503,8 +10402,8 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227" t="s">
-        <v>26</v>
+      <c r="J227" s="1">
+        <v>2.6</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -10519,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>62</v>
       </c>
@@ -10547,8 +10446,8 @@
       <c r="I228">
         <v>0</v>
       </c>
-      <c r="J228" t="s">
-        <v>16</v>
+      <c r="J228" s="1">
+        <v>1.4</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -10563,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>35</v>
       </c>
@@ -10591,8 +10490,8 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229" t="s">
-        <v>22</v>
+      <c r="J229" s="1">
+        <v>1.6</v>
       </c>
       <c r="K229">
         <v>1</v>
@@ -10607,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>59</v>
       </c>
@@ -10635,8 +10534,8 @@
       <c r="I230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>24</v>
+      <c r="J230" s="1">
+        <v>0.2</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -10651,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>64</v>
       </c>
@@ -10679,8 +10578,8 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231" t="s">
-        <v>25</v>
+      <c r="J231" s="1">
+        <v>1.8</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -10695,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>47</v>
       </c>
@@ -10723,7 +10622,7 @@
       <c r="I232">
         <v>0</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="1">
         <v>0</v>
       </c>
       <c r="K232">
@@ -10739,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>57</v>
       </c>
@@ -10767,7 +10666,7 @@
       <c r="I233">
         <v>0</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="1">
         <v>1</v>
       </c>
       <c r="K233">
@@ -10783,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>55</v>
       </c>
@@ -10811,8 +10710,8 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234" t="s">
-        <v>17</v>
+      <c r="J234" s="1">
+        <v>0.8</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -10827,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>64</v>
       </c>
@@ -10855,8 +10754,8 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235" t="s">
-        <v>40</v>
+      <c r="J235" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -10871,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>70</v>
       </c>
@@ -10899,8 +10798,8 @@
       <c r="I236">
         <v>0</v>
       </c>
-      <c r="J236" t="s">
-        <v>28</v>
+      <c r="J236" s="1">
+        <v>2.4</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -10915,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>51</v>
       </c>
@@ -10943,8 +10842,8 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237" t="s">
-        <v>22</v>
+      <c r="J237" s="1">
+        <v>1.6</v>
       </c>
       <c r="K237">
         <v>2</v>
@@ -10959,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>58</v>
       </c>
@@ -10987,7 +10886,7 @@
       <c r="I238">
         <v>0</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="1">
         <v>0</v>
       </c>
       <c r="K238">
@@ -11003,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>60</v>
       </c>
@@ -11031,8 +10930,8 @@
       <c r="I239">
         <v>0</v>
       </c>
-      <c r="J239" t="s">
-        <v>23</v>
+      <c r="J239" s="1">
+        <v>1.2</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -11047,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>77</v>
       </c>
@@ -11075,7 +10974,7 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="1">
         <v>0</v>
       </c>
       <c r="K240">
@@ -11091,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>35</v>
       </c>
@@ -11119,7 +11018,7 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="1">
         <v>0</v>
       </c>
       <c r="K241">
@@ -11135,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>70</v>
       </c>
@@ -11163,8 +11062,8 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242" t="s">
-        <v>45</v>
+      <c r="J242" s="1">
+        <v>2.9</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -11179,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>59</v>
       </c>
@@ -11207,7 +11106,7 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="1">
         <v>0</v>
       </c>
       <c r="K243">
@@ -11223,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>64</v>
       </c>
@@ -11251,7 +11150,7 @@
       <c r="I244">
         <v>0</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="1">
         <v>2</v>
       </c>
       <c r="K244">
@@ -11267,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>57</v>
       </c>
@@ -11295,8 +11194,8 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245" t="s">
-        <v>23</v>
+      <c r="J245" s="1">
+        <v>1.2</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -11311,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>56</v>
       </c>
@@ -11339,8 +11238,8 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246" t="s">
-        <v>46</v>
+      <c r="J246" s="1">
+        <v>2.1</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -11355,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>48</v>
       </c>
@@ -11383,8 +11282,8 @@
       <c r="I247">
         <v>0</v>
       </c>
-      <c r="J247" t="s">
-        <v>21</v>
+      <c r="J247" s="1">
+        <v>0.5</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -11399,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>56</v>
       </c>
@@ -11427,8 +11326,8 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248" t="s">
-        <v>30</v>
+      <c r="J248" s="1">
+        <v>1.9</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -11443,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>66</v>
       </c>
@@ -11471,7 +11370,7 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="1">
         <v>0</v>
       </c>
       <c r="K249">
@@ -11487,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>54</v>
       </c>
@@ -11515,7 +11414,7 @@
       <c r="I250">
         <v>0</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="1">
         <v>0</v>
       </c>
       <c r="K250">
@@ -11531,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>69</v>
       </c>
@@ -11559,7 +11458,7 @@
       <c r="I251">
         <v>0</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="1">
         <v>2</v>
       </c>
       <c r="K251">
@@ -11575,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>51</v>
       </c>
@@ -11603,8 +11502,8 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>31</v>
+      <c r="J252" s="1">
+        <v>4.2</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -11619,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>43</v>
       </c>
@@ -11647,8 +11546,8 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253" t="s">
-        <v>29</v>
+      <c r="J253" s="1">
+        <v>0.1</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -11663,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>62</v>
       </c>
@@ -11691,8 +11590,8 @@
       <c r="I254">
         <v>0</v>
       </c>
-      <c r="J254" t="s">
-        <v>30</v>
+      <c r="J254" s="1">
+        <v>1.9</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -11707,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>67</v>
       </c>
@@ -11735,8 +11634,8 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255" t="s">
-        <v>35</v>
+      <c r="J255" s="1">
+        <v>0.9</v>
       </c>
       <c r="K255">
         <v>1</v>
@@ -11751,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>59</v>
       </c>
@@ -11779,7 +11678,7 @@
       <c r="I256">
         <v>0</v>
       </c>
-      <c r="J256">
+      <c r="J256" s="1">
         <v>0</v>
       </c>
       <c r="K256">
@@ -11795,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>45</v>
       </c>
@@ -11823,7 +11722,7 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
+      <c r="J257" s="1">
         <v>0</v>
       </c>
       <c r="K257">
@@ -11839,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>58</v>
       </c>
@@ -11867,7 +11766,7 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="1">
         <v>3</v>
       </c>
       <c r="K258">
@@ -11883,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>50</v>
       </c>
@@ -11911,8 +11810,8 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259" t="s">
-        <v>35</v>
+      <c r="J259" s="1">
+        <v>0.9</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -11927,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>62</v>
       </c>
@@ -11955,8 +11854,8 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260" t="s">
-        <v>16</v>
+      <c r="J260" s="1">
+        <v>1.4</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -11971,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>38</v>
       </c>
@@ -11999,8 +11898,8 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261" t="s">
-        <v>47</v>
+      <c r="J261" s="1">
+        <v>3.8</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -12015,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>66</v>
       </c>
@@ -12043,7 +11942,7 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
+      <c r="J262" s="1">
         <v>1</v>
       </c>
       <c r="K262">
@@ -12059,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>52</v>
       </c>
@@ -12087,7 +11986,7 @@
       <c r="I263">
         <v>0</v>
       </c>
-      <c r="J263">
+      <c r="J263" s="1">
         <v>0</v>
       </c>
       <c r="K263">
@@ -12103,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>53</v>
       </c>
@@ -12131,7 +12030,7 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
+      <c r="J264" s="1">
         <v>2</v>
       </c>
       <c r="K264">
@@ -12147,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>63</v>
       </c>
@@ -12175,8 +12074,8 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265" t="s">
-        <v>25</v>
+      <c r="J265" s="1">
+        <v>1.8</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -12191,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>54</v>
       </c>
@@ -12219,7 +12118,7 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
+      <c r="J266" s="1">
         <v>0</v>
       </c>
       <c r="K266">
@@ -12235,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>66</v>
       </c>
@@ -12263,8 +12162,8 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267" t="s">
-        <v>29</v>
+      <c r="J267" s="1">
+        <v>0.1</v>
       </c>
       <c r="K267">
         <v>2</v>
@@ -12279,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>55</v>
       </c>
@@ -12307,8 +12206,8 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268" t="s">
-        <v>42</v>
+      <c r="J268" s="1">
+        <v>3.4</v>
       </c>
       <c r="K268">
         <v>1</v>
@@ -12323,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>49</v>
       </c>
@@ -12351,8 +12250,8 @@
       <c r="I269">
         <v>0</v>
       </c>
-      <c r="J269" t="s">
-        <v>17</v>
+      <c r="J269" s="1">
+        <v>0.8</v>
       </c>
       <c r="K269">
         <v>2</v>
@@ -12367,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>54</v>
       </c>
@@ -12395,8 +12294,8 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270" t="s">
-        <v>38</v>
+      <c r="J270" s="1">
+        <v>3.2</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -12411,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>56</v>
       </c>
@@ -12439,8 +12338,8 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271" t="s">
-        <v>22</v>
+      <c r="J271" s="1">
+        <v>1.6</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -12455,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>46</v>
       </c>
@@ -12483,8 +12382,8 @@
       <c r="I272">
         <v>0</v>
       </c>
-      <c r="J272" t="s">
-        <v>17</v>
+      <c r="J272" s="1">
+        <v>0.8</v>
       </c>
       <c r="K272">
         <v>2</v>
@@ -12499,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>61</v>
       </c>
@@ -12527,8 +12426,8 @@
       <c r="I273">
         <v>0</v>
       </c>
-      <c r="J273" t="s">
-        <v>26</v>
+      <c r="J273" s="1">
+        <v>2.6</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -12543,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>67</v>
       </c>
@@ -12571,7 +12470,7 @@
       <c r="I274">
         <v>0</v>
       </c>
-      <c r="J274">
+      <c r="J274" s="1">
         <v>1</v>
       </c>
       <c r="K274">
@@ -12587,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>58</v>
       </c>
@@ -12615,8 +12514,8 @@
       <c r="I275">
         <v>0</v>
       </c>
-      <c r="J275" t="s">
-        <v>29</v>
+      <c r="J275" s="1">
+        <v>0.1</v>
       </c>
       <c r="K275">
         <v>2</v>
@@ -12631,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>47</v>
       </c>
@@ -12659,7 +12558,7 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
+      <c r="J276" s="1">
         <v>1</v>
       </c>
       <c r="K276">
@@ -12675,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>52</v>
       </c>
@@ -12703,7 +12602,7 @@
       <c r="I277">
         <v>0</v>
       </c>
-      <c r="J277">
+      <c r="J277" s="1">
         <v>1</v>
       </c>
       <c r="K277">
@@ -12719,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>58</v>
       </c>
@@ -12747,7 +12646,7 @@
       <c r="I278">
         <v>0</v>
       </c>
-      <c r="J278">
+      <c r="J278" s="1">
         <v>2</v>
       </c>
       <c r="K278">
@@ -12763,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>57</v>
       </c>
@@ -12791,8 +12690,8 @@
       <c r="I279">
         <v>0</v>
       </c>
-      <c r="J279" t="s">
-        <v>34</v>
+      <c r="J279" s="1">
+        <v>0.3</v>
       </c>
       <c r="K279">
         <v>2</v>
@@ -12807,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>58</v>
       </c>
@@ -12835,7 +12734,7 @@
       <c r="I280">
         <v>0</v>
       </c>
-      <c r="J280">
+      <c r="J280" s="1">
         <v>0</v>
       </c>
       <c r="K280">
@@ -12851,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>61</v>
       </c>
@@ -12879,8 +12778,8 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281" t="s">
-        <v>36</v>
+      <c r="J281" s="1">
+        <v>3.6</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -12895,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>42</v>
       </c>
@@ -12923,8 +12822,8 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282" t="s">
-        <v>25</v>
+      <c r="J282" s="1">
+        <v>1.8</v>
       </c>
       <c r="K282">
         <v>1</v>
@@ -12939,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>52</v>
       </c>
@@ -12967,7 +12866,7 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
+      <c r="J283" s="1">
         <v>1</v>
       </c>
       <c r="K283">
@@ -12983,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>59</v>
       </c>
@@ -13011,8 +12910,8 @@
       <c r="I284">
         <v>0</v>
       </c>
-      <c r="J284" t="s">
-        <v>40</v>
+      <c r="J284" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="K284">
         <v>1</v>
@@ -13027,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>40</v>
       </c>
@@ -13055,7 +12954,7 @@
       <c r="I285">
         <v>0</v>
       </c>
-      <c r="J285">
+      <c r="J285" s="1">
         <v>0</v>
       </c>
       <c r="K285">
@@ -13071,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>61</v>
       </c>
@@ -13099,8 +12998,8 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286" t="s">
-        <v>30</v>
+      <c r="J286" s="1">
+        <v>1.9</v>
       </c>
       <c r="K286">
         <v>2</v>
@@ -13115,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>46</v>
       </c>
@@ -13143,8 +13042,8 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287" t="s">
-        <v>25</v>
+      <c r="J287" s="1">
+        <v>1.8</v>
       </c>
       <c r="K287">
         <v>1</v>
@@ -13159,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>59</v>
       </c>
@@ -13187,8 +13086,8 @@
       <c r="I288">
         <v>0</v>
       </c>
-      <c r="J288" t="s">
-        <v>17</v>
+      <c r="J288" s="1">
+        <v>0.8</v>
       </c>
       <c r="K288">
         <v>2</v>
@@ -13203,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>57</v>
       </c>
@@ -13231,7 +13130,7 @@
       <c r="I289">
         <v>0</v>
       </c>
-      <c r="J289">
+      <c r="J289" s="1">
         <v>0</v>
       </c>
       <c r="K289">
@@ -13247,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>57</v>
       </c>
@@ -13275,7 +13174,7 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="1">
         <v>3</v>
       </c>
       <c r="K290">
@@ -13291,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>55</v>
       </c>
@@ -13319,7 +13218,7 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
+      <c r="J291" s="1">
         <v>2</v>
       </c>
       <c r="K291">
@@ -13335,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>61</v>
       </c>
@@ -13363,7 +13262,7 @@
       <c r="I292">
         <v>0</v>
       </c>
-      <c r="J292">
+      <c r="J292" s="1">
         <v>0</v>
       </c>
       <c r="K292">
@@ -13379,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>58</v>
       </c>
@@ -13407,8 +13306,8 @@
       <c r="I293">
         <v>0</v>
       </c>
-      <c r="J293" t="s">
-        <v>48</v>
+      <c r="J293" s="1">
+        <v>4.4000000000000004</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -13423,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>58</v>
       </c>
@@ -13451,8 +13350,8 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294" t="s">
-        <v>41</v>
+      <c r="J294" s="1">
+        <v>2.8</v>
       </c>
       <c r="K294">
         <v>1</v>
@@ -13467,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>67</v>
       </c>
@@ -13495,8 +13394,8 @@
       <c r="I295">
         <v>0</v>
       </c>
-      <c r="J295" t="s">
-        <v>17</v>
+      <c r="J295" s="1">
+        <v>0.8</v>
       </c>
       <c r="K295">
         <v>1</v>
@@ -13511,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>44</v>
       </c>
@@ -13539,8 +13438,8 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296" t="s">
-        <v>41</v>
+      <c r="J296" s="1">
+        <v>2.8</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -13555,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>63</v>
       </c>
@@ -13583,7 +13482,7 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
+      <c r="J297" s="1">
         <v>4</v>
       </c>
       <c r="K297">
@@ -13599,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>63</v>
       </c>
@@ -13627,7 +13526,7 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
+      <c r="J298" s="1">
         <v>0</v>
       </c>
       <c r="K298">
@@ -13643,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>59</v>
       </c>
@@ -13671,7 +13570,7 @@
       <c r="I299">
         <v>0</v>
       </c>
-      <c r="J299">
+      <c r="J299" s="1">
         <v>1</v>
       </c>
       <c r="K299">
@@ -13687,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>57</v>
       </c>
@@ -13715,8 +13614,8 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300" t="s">
-        <v>24</v>
+      <c r="J300" s="1">
+        <v>0.2</v>
       </c>
       <c r="K300">
         <v>1</v>
@@ -13731,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>45</v>
       </c>
@@ -13759,8 +13658,8 @@
       <c r="I301">
         <v>0</v>
       </c>
-      <c r="J301" t="s">
-        <v>23</v>
+      <c r="J301" s="1">
+        <v>1.2</v>
       </c>
       <c r="K301">
         <v>1</v>
@@ -13775,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>68</v>
       </c>
@@ -13803,8 +13702,8 @@
       <c r="I302">
         <v>0</v>
       </c>
-      <c r="J302" t="s">
-        <v>42</v>
+      <c r="J302" s="1">
+        <v>3.4</v>
       </c>
       <c r="K302">
         <v>1</v>
@@ -13819,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>57</v>
       </c>
@@ -13847,8 +13746,8 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303" t="s">
-        <v>23</v>
+      <c r="J303" s="1">
+        <v>1.2</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -13863,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>57</v>
       </c>
@@ -13891,7 +13790,7 @@
       <c r="I304">
         <v>0</v>
       </c>
-      <c r="J304">
+      <c r="J304" s="1">
         <v>0</v>
       </c>
       <c r="K304">
